--- a/medicine/Enfance/Angèle_Delaunois/Angèle_Delaunois.xlsx
+++ b/medicine/Enfance/Angèle_Delaunois/Angèle_Delaunois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ang%C3%A8le_Delaunois</t>
+          <t>Angèle_Delaunois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angèle Delaunois, née à Granville (France) le 17 novembre 1946, est une romancière et auteure pour la jeunesse québécoise. Elle est arrivée au Québec en 1968 et obtient la citoyenneté canadienne en 1976.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ang%C3%A8le_Delaunois</t>
+          <t>Angèle_Delaunois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a obtenu un baccalauréat en arts plastiques de l'Université du Québec à Trois-Rivières et y travaille ensuite pendant dix ans comme chargée de cours.
 Elle a participé à la revue Protégez-vous, en particulier dans leur édition annuelle sur les jouets. Depuis janvier 1998, elle est directrice littéraire des collections destinées à la jeunesse aux Éditions Pierre Tisseyre.
-Elle est l'auteure sélectionnée pour représenter son pays, le Canada, pour le prix international bisannuel, le Prix Hans-Christian-Andersen 2022, dans la catégorie Écriture[1].
+Elle est l'auteure sélectionnée pour représenter son pays, le Canada, pour le prix international bisannuel, le Prix Hans-Christian-Andersen 2022, dans la catégorie Écriture.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ang%C3%A8le_Delaunois</t>
+          <t>Angèle_Delaunois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le lutin du jardin, L'Isatis, 2004, 33 p. (ISBN 978-2-923234-00-7, OCLC 54415270)
 Grand méchant rhume, L'Isatis, 2004, 32 p. (ISBN 978-2-923234-05-2, OCLC 56490612)
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ang%C3%A8le_Delaunois</t>
+          <t>Angèle_Delaunois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,14 +611,16 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1991 - Prix d'excellence de l'Association des Consommateurs du Québec, Les oiseaux de chez nous
 1993 - Prix d'excellence de l'Association des professeurs de sciences du Québec, Les Mammifères de chez nous
 1996 - Canadian Children's Book Centre Choice, Kotik, le Bébé phoque et Nanook et Naoya, les oursons polaires
 1998 - Finaliste au Prix Christie, La Chèvre de Monsieur Potvin
 1998 - Prix du Gouverneur général du Canada, section littérature jeunesse-texte, Variations sur un même«t'aime»
-2022 :  Sélection Prix Hans-Christian-Andersen[1] dans la catégorie Écriture
+2022 :  Sélection Prix Hans-Christian-Andersen dans la catégorie Écriture
 2023: prix Fleury-Mesplet décerné par le conseil d’administration du Salon du livre de Montréal.</t>
         </is>
       </c>
